--- a/natmiOut/YoungD2/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.376653021054</v>
+        <v>15.02290633333333</v>
       </c>
       <c r="H2">
-        <v>11.376653021054</v>
+        <v>45.068719</v>
       </c>
       <c r="I2">
-        <v>0.06802002235606695</v>
+        <v>0.08294661679154217</v>
       </c>
       <c r="J2">
-        <v>0.06802002235606695</v>
+        <v>0.08294661679154217</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60714526450443</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N2">
-        <v>1.60714526450443</v>
+        <v>6.877234</v>
       </c>
       <c r="O2">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P2">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q2">
-        <v>18.28393402869695</v>
+        <v>34.43868073813844</v>
       </c>
       <c r="R2">
-        <v>18.28393402869695</v>
+        <v>309.948126643246</v>
       </c>
       <c r="S2">
-        <v>0.01494357784378652</v>
+        <v>0.01331826969825516</v>
       </c>
       <c r="T2">
-        <v>0.01494357784378652</v>
+        <v>0.01331826969825516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.376653021054</v>
+        <v>15.02290633333333</v>
       </c>
       <c r="H3">
-        <v>11.376653021054</v>
+        <v>45.068719</v>
       </c>
       <c r="I3">
-        <v>0.06802002235606695</v>
+        <v>0.08294661679154217</v>
       </c>
       <c r="J3">
-        <v>0.06802002235606695</v>
+        <v>0.08294661679154217</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.70824185120511</v>
+        <v>9.964653</v>
       </c>
       <c r="N3">
-        <v>5.70824185120511</v>
+        <v>29.893959</v>
       </c>
       <c r="O3">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P3">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q3">
-        <v>64.9406869014195</v>
+        <v>149.698048663169</v>
       </c>
       <c r="R3">
-        <v>64.9406869014195</v>
+        <v>1347.282437968521</v>
       </c>
       <c r="S3">
-        <v>0.05307644451228043</v>
+        <v>0.05789185133304788</v>
       </c>
       <c r="T3">
-        <v>0.05307644451228043</v>
+        <v>0.05789185133304788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15253956560327</v>
+        <v>15.02290633333333</v>
       </c>
       <c r="H4">
-        <v>3.15253956560327</v>
+        <v>45.068719</v>
       </c>
       <c r="I4">
-        <v>0.01884876082041688</v>
+        <v>0.08294661679154217</v>
       </c>
       <c r="J4">
-        <v>0.01884876082041688</v>
+        <v>0.08294661679154217</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.60714526450443</v>
+        <v>2.020148</v>
       </c>
       <c r="N4">
-        <v>1.60714526450443</v>
+        <v>6.060444</v>
       </c>
       <c r="O4">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="P4">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="Q4">
-        <v>5.066589034022148</v>
+        <v>30.34849418347067</v>
       </c>
       <c r="R4">
-        <v>5.066589034022148</v>
+        <v>273.136447651236</v>
       </c>
       <c r="S4">
-        <v>0.004140956071792443</v>
+        <v>0.01173649576023912</v>
       </c>
       <c r="T4">
-        <v>0.004140956071792443</v>
+        <v>0.01173649576023912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.15253956560327</v>
+        <v>3.224667666666666</v>
       </c>
       <c r="H5">
-        <v>3.15253956560327</v>
+        <v>9.674002999999999</v>
       </c>
       <c r="I5">
-        <v>0.01884876082041688</v>
+        <v>0.01780449583404466</v>
       </c>
       <c r="J5">
-        <v>0.01884876082041688</v>
+        <v>0.01780449583404466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.70824185120511</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N5">
-        <v>5.70824185120511</v>
+        <v>6.877234</v>
       </c>
       <c r="O5">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P5">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q5">
-        <v>17.99545828595656</v>
+        <v>7.392264705300222</v>
       </c>
       <c r="R5">
-        <v>17.99545828595656</v>
+        <v>66.53038234770199</v>
       </c>
       <c r="S5">
-        <v>0.01470780474862444</v>
+        <v>0.002858767319650899</v>
       </c>
       <c r="T5">
-        <v>0.01470780474862444</v>
+        <v>0.002858767319650899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.4833107927077</v>
+        <v>3.224667666666666</v>
       </c>
       <c r="H6">
-        <v>52.4833107927077</v>
+        <v>9.674002999999999</v>
       </c>
       <c r="I6">
-        <v>0.3137931663059237</v>
+        <v>0.01780449583404466</v>
       </c>
       <c r="J6">
-        <v>0.3137931663059237</v>
+        <v>0.01780449583404466</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60714526450443</v>
+        <v>9.964653</v>
       </c>
       <c r="N6">
-        <v>1.60714526450443</v>
+        <v>29.893959</v>
       </c>
       <c r="O6">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P6">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q6">
-        <v>84.34830440601442</v>
+        <v>32.132694338653</v>
       </c>
       <c r="R6">
-        <v>84.34830440601442</v>
+        <v>289.194249047877</v>
       </c>
       <c r="S6">
-        <v>0.06893841614744155</v>
+        <v>0.01242648905710986</v>
       </c>
       <c r="T6">
-        <v>0.06893841614744155</v>
+        <v>0.01242648905710986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.4833107927077</v>
+        <v>3.224667666666666</v>
       </c>
       <c r="H7">
-        <v>52.4833107927077</v>
+        <v>9.674002999999999</v>
       </c>
       <c r="I7">
-        <v>0.3137931663059237</v>
+        <v>0.01780449583404466</v>
       </c>
       <c r="J7">
-        <v>0.3137931663059237</v>
+        <v>0.01780449583404466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>5.70824185120511</v>
+        <v>2.020148</v>
       </c>
       <c r="N7">
-        <v>5.70824185120511</v>
+        <v>6.060444</v>
       </c>
       <c r="O7">
-        <v>0.7803061903514114</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="P7">
-        <v>0.7803061903514114</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="Q7">
-        <v>299.5874311567389</v>
+        <v>6.514305937481334</v>
       </c>
       <c r="R7">
-        <v>299.5874311567389</v>
+        <v>58.62875343733199</v>
       </c>
       <c r="S7">
-        <v>0.2448547501584822</v>
+        <v>0.002519239457283898</v>
       </c>
       <c r="T7">
-        <v>0.2448547501584822</v>
+        <v>0.002519239457283898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.7671960979864</v>
+        <v>60.343188</v>
       </c>
       <c r="H8">
-        <v>71.7671960979864</v>
+        <v>181.029564</v>
       </c>
       <c r="I8">
-        <v>0.4290898451401496</v>
+        <v>0.3331754309024837</v>
       </c>
       <c r="J8">
-        <v>0.4290898451401496</v>
+        <v>0.3331754309024837</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60714526450443</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N8">
-        <v>1.60714526450443</v>
+        <v>6.877234</v>
       </c>
       <c r="O8">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P8">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q8">
-        <v>115.3403093556396</v>
+        <v>138.331408060664</v>
       </c>
       <c r="R8">
-        <v>115.3403093556396</v>
+        <v>1244.982672545976</v>
       </c>
       <c r="S8">
-        <v>0.09426838276036242</v>
+        <v>0.0534960968539963</v>
       </c>
       <c r="T8">
-        <v>0.09426838276036242</v>
+        <v>0.0534960968539963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.7671960979864</v>
+        <v>60.343188</v>
       </c>
       <c r="H9">
-        <v>71.7671960979864</v>
+        <v>181.029564</v>
       </c>
       <c r="I9">
-        <v>0.4290898451401496</v>
+        <v>0.3331754309024837</v>
       </c>
       <c r="J9">
-        <v>0.4290898451401496</v>
+        <v>0.3331754309024837</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.70824185120511</v>
+        <v>9.964653</v>
       </c>
       <c r="N9">
-        <v>5.70824185120511</v>
+        <v>29.893959</v>
       </c>
       <c r="O9">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P9">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q9">
-        <v>409.66451231017</v>
+        <v>601.298929333764</v>
       </c>
       <c r="R9">
-        <v>409.66451231017</v>
+        <v>5411.690364003875</v>
       </c>
       <c r="S9">
-        <v>0.3348214623797872</v>
+        <v>0.2325368201828518</v>
       </c>
       <c r="T9">
-        <v>0.3348214623797872</v>
+        <v>0.2325368201828518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.5078258589471</v>
+        <v>60.343188</v>
       </c>
       <c r="H10">
-        <v>26.5078258589471</v>
+        <v>181.029564</v>
       </c>
       <c r="I10">
-        <v>0.1584879932788233</v>
+        <v>0.3331754309024837</v>
       </c>
       <c r="J10">
-        <v>0.1584879932788233</v>
+        <v>0.3331754309024837</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.60714526450443</v>
+        <v>2.020148</v>
       </c>
       <c r="N10">
-        <v>1.60714526450443</v>
+        <v>6.060444</v>
       </c>
       <c r="O10">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="P10">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="Q10">
-        <v>42.60192680151491</v>
+        <v>121.902170551824</v>
       </c>
       <c r="R10">
-        <v>42.60192680151491</v>
+        <v>1097.119534966416</v>
       </c>
       <c r="S10">
-        <v>0.03481883102698462</v>
+        <v>0.04714251386563563</v>
       </c>
       <c r="T10">
-        <v>0.03481883102698462</v>
+        <v>0.04714251386563563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.5078258589471</v>
+        <v>73.515573</v>
       </c>
       <c r="H11">
-        <v>26.5078258589471</v>
+        <v>220.546719</v>
       </c>
       <c r="I11">
-        <v>0.1584879932788233</v>
+        <v>0.4059046849218176</v>
       </c>
       <c r="J11">
-        <v>0.1584879932788233</v>
+        <v>0.4059046849218175</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.70824185120511</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N11">
-        <v>5.70824185120511</v>
+        <v>6.877234</v>
       </c>
       <c r="O11">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P11">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q11">
-        <v>151.3130809524989</v>
+        <v>168.527932721694</v>
       </c>
       <c r="R11">
-        <v>151.3130809524989</v>
+        <v>1516.751394495246</v>
       </c>
       <c r="S11">
-        <v>0.1236691622518387</v>
+        <v>0.0651738223291258</v>
       </c>
       <c r="T11">
-        <v>0.1236691622518387</v>
+        <v>0.0651738223291258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,489 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.96694808184022</v>
+        <v>73.515573</v>
       </c>
       <c r="H12">
-        <v>1.96694808184022</v>
+        <v>220.546719</v>
       </c>
       <c r="I12">
-        <v>0.01176021209861945</v>
+        <v>0.4059046849218176</v>
       </c>
       <c r="J12">
-        <v>0.01176021209861945</v>
+        <v>0.4059046849218175</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.60714526450443</v>
+        <v>9.964653</v>
       </c>
       <c r="N12">
-        <v>1.60714526450443</v>
+        <v>29.893959</v>
       </c>
       <c r="O12">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P12">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q12">
-        <v>3.161171295255582</v>
+        <v>732.5571750411691</v>
       </c>
       <c r="R12">
-        <v>3.161171295255582</v>
+        <v>6593.014575370521</v>
       </c>
       <c r="S12">
-        <v>0.002583645798221131</v>
+        <v>0.2832975543045607</v>
       </c>
       <c r="T12">
-        <v>0.002583645798221131</v>
+        <v>0.2832975543045607</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>73.515573</v>
+      </c>
+      <c r="H13">
+        <v>220.546719</v>
+      </c>
+      <c r="I13">
+        <v>0.4059046849218176</v>
+      </c>
+      <c r="J13">
+        <v>0.4059046849218175</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>2.020148</v>
+      </c>
+      <c r="N13">
+        <v>6.060444</v>
+      </c>
+      <c r="O13">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="P13">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="Q13">
+        <v>148.512337764804</v>
+      </c>
+      <c r="R13">
+        <v>1336.611039883236</v>
+      </c>
+      <c r="S13">
+        <v>0.05743330828813104</v>
+      </c>
+      <c r="T13">
+        <v>0.05743330828813102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>26.71812</v>
+      </c>
+      <c r="H14">
+        <v>80.15436</v>
+      </c>
+      <c r="I14">
+        <v>0.1475199013997117</v>
+      </c>
+      <c r="J14">
+        <v>0.1475199013997117</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.292411333333333</v>
+      </c>
+      <c r="N14">
+        <v>6.877234</v>
+      </c>
+      <c r="O14">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="P14">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="Q14">
+        <v>61.24892109336</v>
+      </c>
+      <c r="R14">
+        <v>551.2402898402399</v>
+      </c>
+      <c r="S14">
+        <v>0.02368643723756683</v>
+      </c>
+      <c r="T14">
+        <v>0.02368643723756683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>26.71812</v>
+      </c>
+      <c r="H15">
+        <v>80.15436</v>
+      </c>
+      <c r="I15">
+        <v>0.1475199013997117</v>
+      </c>
+      <c r="J15">
+        <v>0.1475199013997117</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.964653</v>
+      </c>
+      <c r="N15">
+        <v>29.893959</v>
+      </c>
+      <c r="O15">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="P15">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="Q15">
+        <v>266.23679461236</v>
+      </c>
+      <c r="R15">
+        <v>2396.13115151124</v>
+      </c>
+      <c r="S15">
+        <v>0.1029601993528061</v>
+      </c>
+      <c r="T15">
+        <v>0.1029601993528061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>26.71812</v>
+      </c>
+      <c r="H16">
+        <v>80.15436</v>
+      </c>
+      <c r="I16">
+        <v>0.1475199013997117</v>
+      </c>
+      <c r="J16">
+        <v>0.1475199013997117</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>2.020148</v>
+      </c>
+      <c r="N16">
+        <v>6.060444</v>
+      </c>
+      <c r="O16">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="P16">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="Q16">
+        <v>53.97455668176001</v>
+      </c>
+      <c r="R16">
+        <v>485.77101013584</v>
+      </c>
+      <c r="S16">
+        <v>0.02087326480933882</v>
+      </c>
+      <c r="T16">
+        <v>0.02087326480933882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.290904666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.872714</v>
+      </c>
+      <c r="I17">
+        <v>0.01264887015040004</v>
+      </c>
+      <c r="J17">
+        <v>0.01264887015040004</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.292411333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.877234</v>
+      </c>
+      <c r="O17">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="P17">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="Q17">
+        <v>5.251695821452889</v>
+      </c>
+      <c r="R17">
+        <v>47.265262393076</v>
+      </c>
+      <c r="S17">
+        <v>0.002030957627417234</v>
+      </c>
+      <c r="T17">
+        <v>0.002030957627417234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.96694808184022</v>
-      </c>
-      <c r="H13">
-        <v>1.96694808184022</v>
-      </c>
-      <c r="I13">
-        <v>0.01176021209861945</v>
-      </c>
-      <c r="J13">
-        <v>0.01176021209861945</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.70824185120511</v>
-      </c>
-      <c r="N13">
-        <v>5.70824185120511</v>
-      </c>
-      <c r="O13">
-        <v>0.7803061903514114</v>
-      </c>
-      <c r="P13">
-        <v>0.7803061903514114</v>
-      </c>
-      <c r="Q13">
-        <v>11.22781535990796</v>
-      </c>
-      <c r="R13">
-        <v>11.22781535990796</v>
-      </c>
-      <c r="S13">
-        <v>0.00917656630039832</v>
-      </c>
-      <c r="T13">
-        <v>0.00917656630039832</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.290904666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.872714</v>
+      </c>
+      <c r="I18">
+        <v>0.01264887015040004</v>
+      </c>
+      <c r="J18">
+        <v>0.01264887015040004</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.964653</v>
+      </c>
+      <c r="N18">
+        <v>29.893959</v>
+      </c>
+      <c r="O18">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="P18">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="Q18">
+        <v>22.828070059414</v>
+      </c>
+      <c r="R18">
+        <v>205.452630534726</v>
+      </c>
+      <c r="S18">
+        <v>0.008828166097699755</v>
+      </c>
+      <c r="T18">
+        <v>0.008828166097699755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.290904666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.872714</v>
+      </c>
+      <c r="I19">
+        <v>0.01264887015040004</v>
+      </c>
+      <c r="J19">
+        <v>0.01264887015040004</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.020148</v>
+      </c>
+      <c r="N19">
+        <v>6.060444</v>
+      </c>
+      <c r="O19">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="P19">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="Q19">
+        <v>4.627966480557334</v>
+      </c>
+      <c r="R19">
+        <v>41.65169832501601</v>
+      </c>
+      <c r="S19">
+        <v>0.001789746425283045</v>
+      </c>
+      <c r="T19">
+        <v>0.001789746425283045</v>
       </c>
     </row>
   </sheetData>
